--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_22_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/10/Output_22_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>101649.3731400195</v>
+        <v>18507713.14512592</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>101649.3731400195</v>
+        <v>18507713.14512592</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>33981.59952619658</v>
+        <v>4257597.845502065</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>33981.59952619658</v>
+        <v>4257597.845502065</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1418121006.217483</v>
+        <v>52794577.44916081</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11230.05354237116</v>
+        <v>1152436.096000016</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21764.36609748452</v>
+        <v>2204719.935576872</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>32263.83420815341</v>
+        <v>3251689.997375952</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>42848.16518768904</v>
+        <v>4286489.47827055</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>53287.69329835795</v>
+        <v>5341528.130069631</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>63482.5858635329</v>
+        <v>6419246.043508942</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>73774.56877085005</v>
+        <v>7538378.358717908</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>83997.74678539675</v>
+        <v>8644951.488626536</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>94772.55573395928</v>
+        <v>9681283.744568307</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>104732.5108631019</v>
+        <v>10785600.41224876</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>114304.2613174819</v>
+        <v>11863806.36363758</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>124202.8130205616</v>
+        <v>12996016.59943485</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>134052.3645441643</v>
+        <v>14128226.83523213</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>144717.1560841151</v>
+        <v>15157499.3439914</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>156762.3261352796</v>
+        <v>15946269.93874708</v>
       </c>
     </row>
   </sheetData>
